--- a/docs/Todo.xlsx
+++ b/docs/Todo.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="17970" windowHeight="24915" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="17970" windowHeight="24915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
     <sheet name="Poker Hand Rankings" sheetId="2" r:id="rId2"/>
+    <sheet name="Odds" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>Investigate ECMAScript instead of Lodash</t>
   </si>
@@ -220,13 +221,94 @@
   </si>
   <si>
     <t>Reducer: bySuit, 5 cards</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Distinct Hands</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Cumulative probability</t>
+  </si>
+  <si>
+    <t>Odds</t>
+  </si>
+  <si>
+    <t>Royal flush</t>
+  </si>
+  <si>
+    <t>649,739 : 1</t>
+  </si>
+  <si>
+    <t>Straight flush (excluding royal flush)</t>
+  </si>
+  <si>
+    <t>72,192 : 1</t>
+  </si>
+  <si>
+    <t>4,164 : 1</t>
+  </si>
+  <si>
+    <t>Full house</t>
+  </si>
+  <si>
+    <t>693 : 1</t>
+  </si>
+  <si>
+    <t>Flush (excluding royal flush and straight flush)</t>
+  </si>
+  <si>
+    <t>508 : 1</t>
+  </si>
+  <si>
+    <t>Straight (excluding royal flush and straight flush)</t>
+  </si>
+  <si>
+    <t>254 : 1</t>
+  </si>
+  <si>
+    <t>Three of a kind</t>
+  </si>
+  <si>
+    <t>46.3 : 1</t>
+  </si>
+  <si>
+    <t>Two pair</t>
+  </si>
+  <si>
+    <t>20.0 : 1</t>
+  </si>
+  <si>
+    <t>One pair</t>
+  </si>
+  <si>
+    <t>1.37 : 1</t>
+  </si>
+  <si>
+    <t>No pair / High card</t>
+  </si>
+  <si>
+    <t>0.995 : 1</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Poker_probability</t>
+  </si>
+  <si>
+    <t>Poker Probabilities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,16 +341,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -285,11 +400,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,9 +466,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -314,6 +539,3281 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="10 of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="10 of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11830050"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Jack of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Jack of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12315825"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Queen of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tooltip="Queen of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12801600"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="King of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="King of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13287375"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Ace of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tooltip="Ace of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13773150"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4102" name="AutoShape 6" descr="{4 \choose 1}"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6838950" y="11639550"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="4 of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tooltip="4 of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13544550"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="5 of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="5 of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="14030325"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="6 of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15" tooltip="6 of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="14516100"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="7 of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17" tooltip="7 of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15001875"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="8 of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19" tooltip="8 of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15487650"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4108" name="AutoShape 12" descr="{10 \choose 1}{4 \choose 1}-{4 \choose 1}"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6838950" y="12982575"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="Ace of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21" tooltip="Ace of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15259050"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="Ace of diamonds">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23" tooltip="Ace of diamonds"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15744825"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Ace of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25" tooltip="Ace of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16230600"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="Ace of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tooltip="Ace of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16716375"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="4 of diamonds">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tooltip="4 of diamonds"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17202150"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4114" name="AutoShape 18" descr="{13 \choose 1}{12 \choose 1}{4 \choose 1}"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6838950" y="14697075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="8 of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19" tooltip="8 of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17354550"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="8 of diamonds">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29" tooltip="8 of diamonds"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17840325"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="8 of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31" tooltip="8 of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18326100"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="King of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33" tooltip="King of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="18811875"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="King of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="King of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19297650"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4120" name="AutoShape 24" descr="{13 \choose 1}{4 \choose 3}{12 \choose 1}{4 \choose 2}"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6838950" y="16411575"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="10 of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35" tooltip="10 of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19450050"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="4 of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37" tooltip="4 of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="19935825"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="Queen of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39" tooltip="Queen of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20421600"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="7 of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41" tooltip="7 of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20907375"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="2 of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43" tooltip="2 of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21393150"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4126" name="AutoShape 30" descr="{13 \choose 5}{4 \choose 1}-{10 \choose 1}{4 \choose 1}"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6838950" y="18507075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="7 of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41" tooltip="7 of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="21736050"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="8 of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19" tooltip="8 of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22221825"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="9 of diamonds">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45" tooltip="9 of diamonds"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="22707600"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="10 of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47" tooltip="10 of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23193375"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="Jack of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tooltip="Jack of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23679150"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4132" name="AutoShape 36" descr="{10 \choose 1}{4 \choose 1}^{5}-{10 \choose 1}{4 \choose 1}"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6838950" y="20602575"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37" descr="Queen of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49" tooltip="Queen of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="23831550"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="Queen of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39" tooltip="Queen of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24317325"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="Queen of diamonds">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51" tooltip="Queen of diamonds"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="24803100"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="5 of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53" tooltip="5 of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25288875"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="Ace of diamonds">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23" tooltip="Ace of diamonds"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="25774650"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4138" name="AutoShape 42" descr="{13 \choose 1}{4 \choose 3}{12 \choose 2}{4 \choose 1}^{2}"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6838950" y="22888575"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="3 of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55" tooltip="3 of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="26117550"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44" descr="3 of diamonds">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57" tooltip="3 of diamonds"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="26603325"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45" descr="6 of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59" tooltip="6 of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27089100"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="6 of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15" tooltip="6 of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="27574875"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="King of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tooltip="King of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28060650"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4144" name="AutoShape 48" descr="{13 \choose 2}{4 \choose 2}^{2}{11 \choose 1}{4 \choose 1}"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6838950" y="24984075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49" descr="5 of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tooltip="5 of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28213050"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50" descr="5 of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53" tooltip="5 of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="28698825"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="2 of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43" tooltip="2 of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="29184600"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52" descr="Jack of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61" tooltip="Jack of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="29670375"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53" descr="Ace of diamonds">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23" tooltip="Ace of diamonds"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="30156150"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4150" name="AutoShape 54" descr="{13 \choose 1}{4 \choose 2}{12 \choose 3}{4 \choose 1}^{3}"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6838950" y="27270075"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55" descr="2 of diamonds">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63" tooltip="2 of diamonds"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="30118050"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56" descr="5 of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53" tooltip="5 of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="30603825"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57" descr="6 of spades">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65" tooltip="6 of spades"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="31089600"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58" descr="Jack of hearts">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67" tooltip="Jack of hearts"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="31575375"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59" descr="Ace of clubs">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25" tooltip="Ace of clubs"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="32061150"/>
+          <a:ext cx="381000" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4156" name="AutoShape 60" descr="\left[{13 \choose 5}-10\right]\left[{4 \choose 1}^{5}-4\right]"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6838950" y="29365575"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,8 +4259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +4615,7 @@
       <c r="D44" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1123,7 +4623,815 @@
       <c r="B45" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1.5400000000000001E-6</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1.5400000000000001E-6</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>36</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1.3900000000000001E-5</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1.5E-5</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="9">
+        <v>156</v>
+      </c>
+      <c r="C18" s="9">
+        <v>624</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="E18" s="12">
+        <v>2.5599999999999999E-4</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="9">
+        <v>156</v>
+      </c>
+      <c r="C25" s="15">
+        <v>3744</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1.441E-3</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1277</v>
+      </c>
+      <c r="C32" s="15">
+        <v>5108</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1.9650000000000002E-3</v>
+      </c>
+      <c r="E32" s="12">
+        <v>3.6700000000000001E-3</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="9">
+        <v>10</v>
+      </c>
+      <c r="C39" s="15">
+        <v>10200</v>
+      </c>
+      <c r="D39" s="12">
+        <v>3.9249999999999997E-3</v>
+      </c>
+      <c r="E39" s="12">
+        <v>7.6E-3</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="9">
+        <v>858</v>
+      </c>
+      <c r="C46" s="15">
+        <v>54912</v>
+      </c>
+      <c r="D46" s="12">
+        <v>2.1128000000000001E-2</v>
+      </c>
+      <c r="E46" s="12">
+        <v>2.87E-2</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="25"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="9">
+        <v>858</v>
+      </c>
+      <c r="C53" s="15">
+        <v>123552</v>
+      </c>
+      <c r="D53" s="12">
+        <v>4.7538999999999998E-2</v>
+      </c>
+      <c r="E53" s="12">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="10"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="10"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="10"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="10"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="25"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="15">
+        <v>2860</v>
+      </c>
+      <c r="C60" s="15">
+        <v>1098240</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0.42256899999999997</v>
+      </c>
+      <c r="E60" s="12">
+        <v>0.499</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="10"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="10"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="10"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="10"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="25"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="15">
+        <v>1277</v>
+      </c>
+      <c r="C67" s="15">
+        <v>1302540</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0.50117699999999998</v>
+      </c>
+      <c r="E67" s="18">
+        <v>1</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="10"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="25"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="60">
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="C67:C73"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="E67:E73"/>
+    <mergeCell ref="F67:F73"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="C60:C66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="F60:F66"/>
+    <mergeCell ref="A53:A59"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="D53:D59"/>
+    <mergeCell ref="E53:E59"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="F46:F52"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="D39:D45"/>
+    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="E32:E38"/>
+    <mergeCell ref="F32:F38"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="E18:E24"/>
+    <mergeCell ref="F18:F24"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="F4:F10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" location="Straight_flush" tooltip="Hand rankings" display="https://en.wikipedia.org/wiki/Hand_rankings - Straight_flush"/>
+    <hyperlink ref="A11" r:id="rId2" location="Straight_flush" tooltip="Hand rankings" display="https://en.wikipedia.org/wiki/Hand_rankings - Straight_flush"/>
+    <hyperlink ref="A18" r:id="rId3" location="Four_of_a_kind" tooltip="Hand rankings" display="https://en.wikipedia.org/wiki/Hand_rankings - Four_of_a_kind"/>
+    <hyperlink ref="A25" r:id="rId4" location="Full_house" tooltip="Hand rankings" display="https://en.wikipedia.org/wiki/Hand_rankings - Full_house"/>
+    <hyperlink ref="A32" r:id="rId5" location="Flush" tooltip="Hand rankings" display="https://en.wikipedia.org/wiki/Hand_rankings - Flush"/>
+    <hyperlink ref="A39" r:id="rId6" location="Straight" tooltip="Hand rankings" display="https://en.wikipedia.org/wiki/Hand_rankings - Straight"/>
+    <hyperlink ref="A46" r:id="rId7" location="Three_of_a_kind" tooltip="Hand rankings" display="https://en.wikipedia.org/wiki/Hand_rankings - Three_of_a_kind"/>
+    <hyperlink ref="A53" r:id="rId8" location="Two_pair" tooltip="Hand rankings" display="https://en.wikipedia.org/wiki/Hand_rankings - Two_pair"/>
+    <hyperlink ref="A60" r:id="rId9" location="One_pair" tooltip="Hand rankings" display="https://en.wikipedia.org/wiki/Hand_rankings - One_pair"/>
+    <hyperlink ref="A67" r:id="rId10" location="High_card" tooltip="Hand rankings" display="https://en.wikipedia.org/wiki/Hand_rankings - High_card"/>
+  </hyperlinks>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <drawing r:id="rId12"/>
+</worksheet>
 </file>